--- a/data/brief/briefP/Parents/g_2.0-3.11_gen.xlsx
+++ b/data/brief/briefP/Parents/g_2.0-3.11_gen.xlsx
@@ -1,44 +1,45 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
-  <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\daniel\Documents\Daniel\My_projects\coding\Diagnostic_test\Diascore-backend\data\breif\breifP\Parents\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBDEB024-4EA0-4C0F-9D92-053746C5DF42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>T Score</t>
+    <t>raw score</t>
   </si>
   <si>
-    <t>raw score</t>
+    <t>T score</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -49,7 +50,14 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -61,20 +69,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="4">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -85,10 +99,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -126,71 +140,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -214,50 +228,53 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
                 <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="100000"/>
-                <a:shade val="100000"/>
+                <a:tint val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:shade val="100000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
+              <a:shade val="9500"/>
               <a:satMod val="105000"/>
             </a:schemeClr>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -267,7 +284,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -276,7 +293,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -285,7 +302,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -293,10 +310,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -325,7 +342,7 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
+                <a:tint val="20000"/>
                 <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
@@ -338,13 +355,12 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
                 <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
+                <a:tint val="80000"/>
                 <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
@@ -356,1086 +372,1051 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:spDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </a:style>
-    </a:spDef>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
+  <a:objectDefaults/>
   <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
   <dimension ref="A1:B128"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+      <c r="A2" s="2">
         <v>189</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="2">
         <v>115</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+      <c r="A3" s="2">
         <v>188</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="2">
         <v>114</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+      <c r="A4" s="2">
         <v>187</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2">
         <v>113</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+      <c r="A5" s="2">
         <v>186</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="2">
         <v>113</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+      <c r="A6" s="2">
         <v>185</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="2">
         <v>112</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+      <c r="A7" s="2">
         <v>184</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="2">
         <v>111</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+      <c r="A8" s="2">
         <v>183</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="2">
         <v>111</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+      <c r="A9" s="2">
         <v>182</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="2">
         <v>110</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+      <c r="A10" s="2">
         <v>181</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="2">
         <v>109</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+      <c r="A11" s="2">
         <v>180</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="2">
         <v>109</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+      <c r="A12" s="2">
         <v>179</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="2">
         <v>108</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+      <c r="A13" s="2">
         <v>178</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="2">
         <v>108</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+      <c r="A14" s="2">
         <v>177</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="2">
         <v>107</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+      <c r="A15" s="2">
         <v>176</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="2">
         <v>106</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+      <c r="A16" s="2">
         <v>175</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="2">
         <v>106</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+      <c r="A17" s="2">
         <v>174</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="2">
         <v>105</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+      <c r="A18" s="2">
         <v>173</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="2">
         <v>104</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+      <c r="A19" s="2">
         <v>172</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="2">
         <v>104</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+      <c r="A20" s="2">
         <v>171</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="2">
         <v>103</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+      <c r="A21" s="2">
         <v>170</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="2">
         <v>102</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+      <c r="A22" s="2">
         <v>169</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="2">
         <v>102</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+      <c r="A23" s="2">
         <v>168</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="2">
         <v>101</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+      <c r="A24" s="2">
         <v>167</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+      <c r="A25" s="2">
         <v>166</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+      <c r="A26" s="2">
         <v>165</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="2">
         <v>99</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
+      <c r="A27" s="2">
         <v>164</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="2">
         <v>98</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28">
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
+      <c r="A28" s="2">
         <v>163</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="2">
         <v>98</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29">
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
+      <c r="A29" s="2">
         <v>162</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="2">
         <v>97</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30">
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
+      <c r="A30" s="2">
         <v>161</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="2">
         <v>97</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31">
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
+      <c r="A31" s="2">
         <v>160</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="2">
         <v>96</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32">
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
+      <c r="A32" s="2">
         <v>159</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="2">
         <v>95</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33">
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
+      <c r="A33" s="2">
         <v>158</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="2">
         <v>95</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34">
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
+      <c r="A34" s="2">
         <v>157</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="2">
         <v>94</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35">
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
+      <c r="A35" s="2">
         <v>156</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="2">
         <v>93</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36">
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
+      <c r="A36" s="2">
         <v>155</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="2">
         <v>93</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37">
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
+      <c r="A37" s="2">
         <v>154</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="2">
         <v>92</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38">
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
+      <c r="A38" s="2">
         <v>153</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="2">
         <v>91</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39">
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
+      <c r="A39" s="2">
         <v>152</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="2">
         <v>91</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40">
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
+      <c r="A40" s="2">
         <v>151</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="2">
         <v>90</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41">
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
+      <c r="A41" s="2">
         <v>150</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="2">
         <v>89</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42">
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
+      <c r="A42" s="2">
         <v>149</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="2">
         <v>89</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43">
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
+      <c r="A43" s="2">
         <v>148</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="2">
         <v>88</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44">
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
+      <c r="A44" s="2">
         <v>147</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="2">
         <v>87</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45">
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
+      <c r="A45" s="2">
         <v>146</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="2">
         <v>87</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46">
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
+      <c r="A46" s="2">
         <v>145</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="2">
         <v>86</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47">
+    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
+      <c r="A47" s="2">
         <v>144</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="2">
         <v>86</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48">
+    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
+      <c r="A48" s="2">
         <v>143</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="2">
         <v>85</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49">
+    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
+      <c r="A49" s="2">
         <v>142</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="2">
         <v>84</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50">
+    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
+      <c r="A50" s="2">
         <v>141</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="2">
         <v>84</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51">
+    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
+      <c r="A51" s="2">
         <v>140</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="2">
         <v>83</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52">
+    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
+      <c r="A52" s="2">
         <v>139</v>
       </c>
-      <c r="B52">
+      <c r="B52" s="2">
         <v>82</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53">
+    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
+      <c r="A53" s="2">
         <v>138</v>
       </c>
-      <c r="B53">
+      <c r="B53" s="2">
         <v>82</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54">
+    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
+      <c r="A54" s="2">
         <v>137</v>
       </c>
-      <c r="B54">
+      <c r="B54" s="2">
         <v>81</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55">
+    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
+      <c r="A55" s="2">
         <v>136</v>
       </c>
-      <c r="B55">
+      <c r="B55" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56">
+    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75">
+      <c r="A56" s="2">
         <v>135</v>
       </c>
-      <c r="B56">
+      <c r="B56" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57">
+    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75">
+      <c r="A57" s="2">
         <v>134</v>
       </c>
-      <c r="B57">
+      <c r="B57" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58">
+    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75">
+      <c r="A58" s="2">
         <v>133</v>
       </c>
-      <c r="B58">
+      <c r="B58" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59">
+    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75">
+      <c r="A59" s="2">
         <v>132</v>
       </c>
-      <c r="B59">
+      <c r="B59" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60">
+    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75">
+      <c r="A60" s="2">
         <v>131</v>
       </c>
-      <c r="B60">
+      <c r="B60" s="2">
         <v>77</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61">
+    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75">
+      <c r="A61" s="2">
         <v>130</v>
       </c>
-      <c r="B61">
+      <c r="B61" s="2">
         <v>76</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62">
+    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75">
+      <c r="A62" s="2">
         <v>129</v>
       </c>
-      <c r="B62">
+      <c r="B62" s="2">
         <v>76</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63">
+    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75">
+      <c r="A63" s="2">
         <v>128</v>
       </c>
-      <c r="B63">
+      <c r="B63" s="2">
         <v>75</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64">
+    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75">
+      <c r="A64" s="2">
         <v>127</v>
       </c>
-      <c r="B64">
+      <c r="B64" s="2">
         <v>75</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65">
+    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18.75">
+      <c r="A65" s="2">
         <v>126</v>
       </c>
-      <c r="B65">
+      <c r="B65" s="2">
         <v>74</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66">
+    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75">
+      <c r="A66" s="2">
         <v>125</v>
       </c>
-      <c r="B66">
+      <c r="B66" s="2">
         <v>73</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67">
+    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75">
+      <c r="A67" s="2">
         <v>124</v>
       </c>
-      <c r="B67">
+      <c r="B67" s="2">
         <v>73</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68">
+    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75">
+      <c r="A68" s="2">
         <v>123</v>
       </c>
-      <c r="B68">
+      <c r="B68" s="2">
         <v>72</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69">
+    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18.75">
+      <c r="A69" s="2">
         <v>122</v>
       </c>
-      <c r="B69">
+      <c r="B69" s="2">
         <v>71</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70">
+    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18.75">
+      <c r="A70" s="2">
         <v>121</v>
       </c>
-      <c r="B70">
+      <c r="B70" s="2">
         <v>71</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71">
+    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18.75">
+      <c r="A71" s="2">
         <v>120</v>
       </c>
-      <c r="B71">
+      <c r="B71" s="2">
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72">
+    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18.75">
+      <c r="A72" s="2">
         <v>119</v>
       </c>
-      <c r="B72">
+      <c r="B72" s="2">
         <v>69</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73">
+    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18.75">
+      <c r="A73" s="2">
         <v>118</v>
       </c>
-      <c r="B73">
+      <c r="B73" s="2">
         <v>69</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74">
+    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18.75">
+      <c r="A74" s="2">
         <v>117</v>
       </c>
-      <c r="B74">
+      <c r="B74" s="2">
         <v>68</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75">
+    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18.75">
+      <c r="A75" s="2">
         <v>116</v>
       </c>
-      <c r="B75">
+      <c r="B75" s="2">
         <v>67</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76">
+    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18.75">
+      <c r="A76" s="2">
         <v>115</v>
       </c>
-      <c r="B76">
+      <c r="B76" s="2">
         <v>67</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77">
+    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18.75">
+      <c r="A77" s="2">
         <v>114</v>
       </c>
-      <c r="B77">
+      <c r="B77" s="2">
         <v>66</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78">
+    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18.75">
+      <c r="A78" s="2">
         <v>113</v>
       </c>
-      <c r="B78">
+      <c r="B78" s="2">
         <v>65</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79">
+    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18.75">
+      <c r="A79" s="2">
         <v>112</v>
       </c>
-      <c r="B79">
+      <c r="B79" s="2">
         <v>65</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80">
+    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="18.75">
+      <c r="A80" s="2">
         <v>111</v>
       </c>
-      <c r="B80">
+      <c r="B80" s="2">
         <v>64</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81">
+    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="18.75">
+      <c r="A81" s="2">
         <v>110</v>
       </c>
-      <c r="B81">
+      <c r="B81" s="2">
         <v>64</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82">
+    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="18.75">
+      <c r="A82" s="2">
         <v>109</v>
       </c>
-      <c r="B82">
+      <c r="B82" s="2">
         <v>63</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83">
+    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="18.75">
+      <c r="A83" s="2">
         <v>108</v>
       </c>
-      <c r="B83">
+      <c r="B83" s="2">
         <v>62</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84">
+    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="18.75">
+      <c r="A84" s="2">
         <v>107</v>
       </c>
-      <c r="B84">
+      <c r="B84" s="2">
         <v>62</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85">
+    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="18.75">
+      <c r="A85" s="2">
         <v>106</v>
       </c>
-      <c r="B85">
+      <c r="B85" s="2">
         <v>61</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86">
+    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="18.75">
+      <c r="A86" s="2">
         <v>105</v>
       </c>
-      <c r="B86">
+      <c r="B86" s="2">
         <v>60</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87">
+    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="18.75">
+      <c r="A87" s="2">
         <v>104</v>
       </c>
-      <c r="B87">
+      <c r="B87" s="2">
         <v>60</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88">
+    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="18.75">
+      <c r="A88" s="2">
         <v>103</v>
       </c>
-      <c r="B88">
+      <c r="B88" s="2">
         <v>59</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89">
+    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="18.75">
+      <c r="A89" s="2">
         <v>102</v>
       </c>
-      <c r="B89">
+      <c r="B89" s="2">
         <v>58</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90">
+    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="18.75">
+      <c r="A90" s="2">
         <v>101</v>
       </c>
-      <c r="B90">
+      <c r="B90" s="2">
         <v>58</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91">
+    <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="18.75">
+      <c r="A91" s="2">
         <v>100</v>
       </c>
-      <c r="B91">
+      <c r="B91" s="2">
         <v>57</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92">
+    <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="18.75">
+      <c r="A92" s="2">
         <v>99</v>
       </c>
-      <c r="B92">
+      <c r="B92" s="2">
         <v>56</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93">
+    <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="18.75">
+      <c r="A93" s="2">
         <v>98</v>
       </c>
-      <c r="B93">
+      <c r="B93" s="2">
         <v>56</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94">
+    <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="18.75">
+      <c r="A94" s="2">
         <v>97</v>
       </c>
-      <c r="B94">
+      <c r="B94" s="2">
         <v>55</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95">
+    <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="18.75">
+      <c r="A95" s="2">
         <v>96</v>
       </c>
-      <c r="B95">
+      <c r="B95" s="2">
         <v>54</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96">
+    <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="18.75">
+      <c r="A96" s="2">
         <v>95</v>
       </c>
-      <c r="B96">
+      <c r="B96" s="2">
         <v>54</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97">
+    <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="18.75">
+      <c r="A97" s="2">
         <v>94</v>
       </c>
-      <c r="B97">
+      <c r="B97" s="2">
         <v>53</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98">
+    <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="18.75">
+      <c r="A98" s="2">
         <v>93</v>
       </c>
-      <c r="B98">
+      <c r="B98" s="2">
         <v>53</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99">
+    <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="18.75">
+      <c r="A99" s="2">
         <v>92</v>
       </c>
-      <c r="B99">
+      <c r="B99" s="2">
         <v>52</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100">
+    <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="18.75">
+      <c r="A100" s="2">
         <v>91</v>
       </c>
-      <c r="B100">
+      <c r="B100" s="2">
         <v>51</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101">
+    <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="18.75">
+      <c r="A101" s="2">
         <v>90</v>
       </c>
-      <c r="B101">
+      <c r="B101" s="2">
         <v>51</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A102">
+    <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="18.75">
+      <c r="A102" s="2">
         <v>89</v>
       </c>
-      <c r="B102">
+      <c r="B102" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A103">
+    <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="18.75">
+      <c r="A103" s="2">
         <v>88</v>
       </c>
-      <c r="B103">
+      <c r="B103" s="2">
         <v>49</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A104">
+    <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="18.75">
+      <c r="A104" s="2">
         <v>87</v>
       </c>
-      <c r="B104">
+      <c r="B104" s="2">
         <v>49</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A105">
+    <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="18.75">
+      <c r="A105" s="2">
         <v>86</v>
       </c>
-      <c r="B105">
+      <c r="B105" s="2">
         <v>48</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A106">
+    <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="18.75">
+      <c r="A106" s="2">
         <v>85</v>
       </c>
-      <c r="B106">
+      <c r="B106" s="2">
         <v>47</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A107">
+    <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="18.75">
+      <c r="A107" s="2">
         <v>84</v>
       </c>
-      <c r="B107">
+      <c r="B107" s="2">
         <v>47</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A108">
+    <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="18.75">
+      <c r="A108" s="2">
         <v>83</v>
       </c>
-      <c r="B108">
+      <c r="B108" s="2">
         <v>46</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A109">
+    <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="18.75">
+      <c r="A109" s="2">
         <v>82</v>
       </c>
-      <c r="B109">
+      <c r="B109" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A110">
+    <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="18.75">
+      <c r="A110" s="2">
         <v>81</v>
       </c>
-      <c r="B110">
+      <c r="B110" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A111">
+    <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="18.75">
+      <c r="A111" s="2">
         <v>80</v>
       </c>
-      <c r="B111">
+      <c r="B111" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A112">
+    <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="18.75">
+      <c r="A112" s="2">
         <v>79</v>
       </c>
-      <c r="B112">
+      <c r="B112" s="2">
         <v>43</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A113">
+    <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="18.75">
+      <c r="A113" s="2">
         <v>78</v>
       </c>
-      <c r="B113">
+      <c r="B113" s="2">
         <v>43</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A114">
+    <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="18.75">
+      <c r="A114" s="2">
         <v>77</v>
       </c>
-      <c r="B114">
+      <c r="B114" s="2">
         <v>42</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A115">
+    <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="18.75">
+      <c r="A115" s="2">
         <v>76</v>
       </c>
-      <c r="B115">
+      <c r="B115" s="2">
         <v>42</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A116">
+    <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="18.75">
+      <c r="A116" s="2">
         <v>75</v>
       </c>
-      <c r="B116">
+      <c r="B116" s="2">
         <v>41</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A117">
+    <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="18.75">
+      <c r="A117" s="2">
         <v>74</v>
       </c>
-      <c r="B117">
+      <c r="B117" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A118">
+    <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="18.75">
+      <c r="A118" s="2">
         <v>73</v>
       </c>
-      <c r="B118">
+      <c r="B118" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A119">
+    <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="18.75">
+      <c r="A119" s="2">
         <v>72</v>
       </c>
-      <c r="B119">
+      <c r="B119" s="2">
         <v>39</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A120">
+    <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="18.75">
+      <c r="A120" s="2">
         <v>71</v>
       </c>
-      <c r="B120">
+      <c r="B120" s="2">
         <v>38</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A121">
+    <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="18.75">
+      <c r="A121" s="2">
         <v>70</v>
       </c>
-      <c r="B121">
+      <c r="B121" s="2">
         <v>38</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A122">
+    <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="18.75">
+      <c r="A122" s="2">
         <v>69</v>
       </c>
-      <c r="B122">
+      <c r="B122" s="2">
         <v>37</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A123">
+    <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="18.75">
+      <c r="A123" s="2">
         <v>68</v>
       </c>
-      <c r="B123">
+      <c r="B123" s="2">
         <v>36</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A124">
+    <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="18.75">
+      <c r="A124" s="2">
         <v>67</v>
       </c>
-      <c r="B124">
+      <c r="B124" s="2">
         <v>36</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A125">
+    <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="18.75">
+      <c r="A125" s="2">
         <v>66</v>
       </c>
-      <c r="B125">
+      <c r="B125" s="2">
         <v>35</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A126">
+    <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="18.75">
+      <c r="A126" s="2">
         <v>65</v>
       </c>
-      <c r="B126">
+      <c r="B126" s="2">
         <v>34</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A127">
+    <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="18.75">
+      <c r="A127" s="2">
         <v>64</v>
       </c>
-      <c r="B127">
+      <c r="B127" s="2">
         <v>34</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A128">
+    <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="18.75">
+      <c r="A128" s="2">
         <v>63</v>
       </c>
-      <c r="B128">
+      <c r="B128" s="2">
         <v>33</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError sqref="A2:B44 E43:F44" numberStoredAsText="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>